--- a/Supernova Parts.xlsx
+++ b/Supernova Parts.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddani\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507ACE-BA0B-4689-A74A-FFA6550A4AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>Part</t>
   </si>
@@ -107,47 +124,113 @@
   </si>
   <si>
     <t>-arduino</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Waveshare Ανιχνευτής Ακολουθίας Γραμμής - 5-Channels</t>
+  </si>
+  <si>
+    <t>Mini Robot Rover Chassis Kit - 4WD with DC Motors</t>
+  </si>
+  <si>
+    <t>me FPA</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -161,27 +244,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -191,45 +281,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -419,554 +528,1002 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.13"/>
-    <col customWidth="1" min="5" max="5" width="15.38"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>29.99</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F13" si="1">B3*C3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F13" si="0">B3*C3</f>
         <v>29.99</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N13" si="1">J3*K3</f>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="9">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
         <v>1.2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0E-5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.88</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <f>sum(F4:F13)</f>
+    <row r="14" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <f>SUM(F4:F13)</f>
         <v>52.3001</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="14">
         <f>F14/4</f>
         <v>13.075025</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <f>SUM(N4:N13)</f>
+        <v>49.599999999999994</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="5">
+        <f>N14/4</f>
+        <v>12.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
         <v>29.99</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="11">
         <f t="shared" ref="F21:F31" si="2">B21*C21</f>
         <v>29.99</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:N31" si="3">J21*K21</f>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.4</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="11">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
         <v>1.2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="11">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="3"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.0E-5</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>0.00008</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
         <v>3.6</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="11">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
         <v>1.35</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
         <v>0.8</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="11">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9">
         <v>1.88</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="11">
         <f t="shared" si="2"/>
         <v>7.52</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <f>sum(F22:F31)</f>
-        <v>22.37008</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11">
+        <f>SUM(F22:F31)</f>
+        <v>22.370080000000002</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <f>SUM(N22:N31)</f>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A8"/>
-    <hyperlink r:id="rId2" ref="A26"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Supernova Parts.xlsx
+++ b/Supernova Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507ACE-BA0B-4689-A74A-FFA6550A4AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10252140-BF18-4FA4-B7E4-8CF801BECD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,26 +294,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,7 +541,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -552,26 +552,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,14 +592,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -608,27 +608,27 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>29.99</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F13" si="0">B3*C3</f>
         <v>29.99</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,27 +650,27 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N4" s="2">
@@ -692,32 +692,32 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>1.2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>18.899999999999999</v>
@@ -725,36 +725,36 @@
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -766,27 +766,27 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>3.6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -798,27 +798,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>1.35</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -830,27 +830,27 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>0.8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -862,27 +862,27 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -894,27 +894,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>1.88</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>18.799999999999997</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -926,17 +926,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -948,17 +948,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="2"/>
@@ -975,19 +975,19 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <f>SUM(F4:F13)</f>
         <v>52.3001</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <f>F14/4</f>
         <v>13.075025</v>
       </c>
@@ -998,37 +998,37 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2">
         <f>SUM(N4:N13)</f>
-        <v>49.599999999999994</v>
+        <v>30.7</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P14" s="5">
         <f>N14/4</f>
-        <v>12.399999999999999</v>
+        <v>7.6749999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="20" t="s">
         <v>36</v>
       </c>
@@ -1039,56 +1039,56 @@
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="6" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,14 +1109,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1125,27 +1125,27 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>29.99</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <f t="shared" ref="F21:F31" si="2">B21*C21</f>
         <v>29.99</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1167,27 +1167,27 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>0.4</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="L22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N22" s="2">
@@ -1209,27 +1209,27 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>1.2</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="L23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N23" s="2">
@@ -1251,27 +1251,27 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>8</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <f t="shared" si="2"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1283,91 +1283,91 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>3.6</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="19"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>3</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>1.35</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="19"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>1</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>0.8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1379,81 +1379,81 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>1.88</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <f t="shared" si="2"/>
         <v>7.52</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="19"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1465,17 +1465,17 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1487,19 +1487,19 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8">
         <f>SUM(F22:F31)</f>
         <v>22.370080000000002</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>

--- a/Supernova Parts.xlsx
+++ b/Supernova Parts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Part</t>
   </si>
@@ -87,6 +87,9 @@
     <t xml:space="preserve">For Steerum</t>
   </si>
   <si>
+    <t xml:space="preserve">x6 battary</t>
+  </si>
+  <si>
     <t>TCRT5000L</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t xml:space="preserve">For trackum</t>
   </si>
   <si>
+    <t>case</t>
+  </si>
+  <si>
     <t xml:space="preserve">Πλακέτα Διάτρητη 40x60mm - Διπλής Όψης</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quantity (use)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp2040 </t>
   </si>
   <si>
     <t>-arduino</t>
@@ -139,13 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -213,29 +216,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -243,23 +246,23 @@
       <left style="none"/>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -269,32 +272,32 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="7" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +809,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
       <selection activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -1064,18 +1067,26 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="13.199999999999999">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
+      <c r="A8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -1084,10 +1095,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
@@ -1095,19 +1106,27 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9199999999999999</v>
       </c>
     </row>
     <row r="9" ht="13.199999999999999">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1119,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
@@ -1139,7 +1158,7 @@
     </row>
     <row r="10" ht="13.199999999999999">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1148,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
@@ -1171,7 +1190,7 @@
     </row>
     <row r="11" ht="13.199999999999999">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1180,10 +1199,10 @@
         <v>1.8799999999999999</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
@@ -1234,8 +1253,8 @@
         <v>0</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="6" t="s">
-        <v>33</v>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1247,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="13.199999999999999">
@@ -1260,10 +1279,10 @@
         <f>SUM(F4:F13)</f>
         <v>52.3001</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
         <f>F14/4</f>
         <v>13.075025</v>
       </c>
@@ -1274,14 +1293,14 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3">
         <f>SUM(N4:N13)</f>
-        <v>35.200000000000003</v>
+        <v>46.120000000000005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7">
         <f>N14/4</f>
-        <v>8.8000000000000007</v>
+        <v>11.530000000000001</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1297,7 +1316,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1306,7 +1325,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1326,7 +1345,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1336,7 +1355,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -1349,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1369,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>2</v>
@@ -1422,14 +1441,14 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="3" t="s">
-        <v>6</v>
+      <c r="I21" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>29.989999999999998</v>
+        <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>7</v>
@@ -1439,7 +1458,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" ref="N21:N31" si="3">J21*K21</f>
-        <v>29.989999999999998</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.199999999999999">
@@ -1549,13 +1568,19 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.97999999999999998</v>
       </c>
     </row>
     <row r="25" ht="13.199999999999999">
@@ -1591,8 +1616,8 @@
       </c>
     </row>
     <row r="26" ht="13.199999999999999">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
+      <c r="A26" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -1601,10 +1626,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
@@ -1624,7 +1649,7 @@
     </row>
     <row r="27" ht="13.199999999999999">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1636,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
@@ -1656,7 +1681,7 @@
     </row>
     <row r="28" ht="13.199999999999999">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1665,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
@@ -1688,7 +1713,7 @@
     </row>
     <row r="29" ht="13.199999999999999">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1697,10 +1722,10 @@
         <v>1.8799999999999999</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
@@ -1772,8 +1797,8 @@
         <f>SUM(F22:F31)</f>
         <v>22.370080000000002</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>39</v>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
@@ -1782,11 +1807,11 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3">
-        <f>SUM(N22:N31)</f>
-        <v>24.799999999999997</v>
+        <f>SUM(N21:N31)</f>
+        <v>37.779999999999994</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
